--- a/Project Files/Forms System (SHS)/templates/shs_sf1.xlsx
+++ b/Project Files/Forms System (SHS)/templates/shs_sf1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syd\Documents\NetBeansProjects\Forms System (SHS) Fix\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6C64A6-4FF7-4AAE-9D3F-F8407E65F0BB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC598CB-3CBF-4567-862A-6720003873D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10 Pupils (0)" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="74">
   <si>
     <t>LRN</t>
   </si>
@@ -363,6 +363,15 @@
   <si>
     <t xml:space="preserve">           Semester</t>
   </si>
+  <si>
+    <t>Course  (For TVL Only)</t>
+  </si>
+  <si>
+    <t>Course (For TVL Only)</t>
+  </si>
+  <si>
+    <t>Course (For TVL  Only)</t>
+  </si>
 </sst>
 </file>
 
@@ -676,7 +685,7 @@
       <alignment horizontal="distributed" vertical="distributed" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -819,6 +828,207 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -828,15 +1038,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -852,158 +1053,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1038,29 +1089,29 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1894,10 +1945,702 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="V7" sqref="V7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="11.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" style="1" customWidth="1"/>
+    <col min="17" max="18" width="12.7109375" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="117" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="117"/>
+      <c r="R2" s="117"/>
+    </row>
+    <row r="3" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="90"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="90"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="118" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="119"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="92"/>
+      <c r="O3" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" s="120"/>
+      <c r="Q3" s="120"/>
+      <c r="R3" s="120"/>
+    </row>
+    <row r="4" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="89"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="38"/>
+      <c r="N4" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="90"/>
+      <c r="P4" s="91"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="92"/>
+    </row>
+    <row r="5" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="121" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="122"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" s="57"/>
+      <c r="P5" s="121"/>
+      <c r="Q5" s="123"/>
+      <c r="R5" s="123"/>
+    </row>
+    <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="138"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" s="111"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="141"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="138"/>
+      <c r="R6" s="47"/>
+    </row>
+    <row r="7" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="95" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="99" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="100" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="106" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="106" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="108"/>
+      <c r="O7" s="109" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="110"/>
+      <c r="Q7" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="94"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="86"/>
+      <c r="R8" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="18"/>
+    </row>
+    <row r="10" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="18"/>
+    </row>
+    <row r="11" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="18"/>
+    </row>
+    <row r="12" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="18"/>
+    </row>
+    <row r="13" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="18"/>
+    </row>
+    <row r="14" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="18"/>
+    </row>
+    <row r="15" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="18"/>
+    </row>
+    <row r="16" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="18"/>
+    </row>
+    <row r="17" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="18"/>
+    </row>
+    <row r="18" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="18"/>
+    </row>
+    <row r="20" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="R20" s="5"/>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="80"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="83"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L22" s="10"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="64"/>
+      <c r="S22" s="64"/>
+    </row>
+    <row r="23" spans="1:19" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" s="68"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="O23" s="71"/>
+      <c r="Q23" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="R23" s="72"/>
+      <c r="S23" s="72"/>
+    </row>
+    <row r="24" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="68"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="O24" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q24" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="R24" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="S24" s="60"/>
+    </row>
+    <row r="25" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25" s="62"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="76"/>
+    </row>
+  </sheetData>
+  <mergeCells count="46">
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N22:O22"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="51" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851DF26E-BF8A-4EAB-881C-57E587242C32}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:S35"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1923,228 +2666,229 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="117"/>
+      <c r="R2" s="117"/>
     </row>
     <row r="3" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="52"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="92"/>
       <c r="E3" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="54" t="s">
+      <c r="F3" s="90"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="52"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="92"/>
       <c r="O3" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-    </row>
-    <row r="4" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P3" s="120"/>
+      <c r="Q3" s="120"/>
+      <c r="R3" s="120"/>
+    </row>
+    <row r="4" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="62" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="63"/>
-      <c r="K4" s="38"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="26"/>
       <c r="L4" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="M4" s="38"/>
+      <c r="M4" s="26"/>
       <c r="N4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="51"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="52"/>
-    </row>
-    <row r="5" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="J5" s="58"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="122" t="s">
-        <v>70</v>
-      </c>
-      <c r="O5" s="123"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="124"/>
-      <c r="R5" s="124"/>
-    </row>
-    <row r="6" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+      <c r="O4" s="90"/>
+      <c r="P4" s="91"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="92"/>
+    </row>
+    <row r="5" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" s="128"/>
+      <c r="L5" s="129"/>
+      <c r="M5" s="130"/>
+      <c r="N5" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="O5" s="55"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+    </row>
+    <row r="6" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="138"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="90"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="142"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="137"/>
+      <c r="R6" s="53"/>
+    </row>
+    <row r="7" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B7" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C7" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D7" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="71" t="s">
+      <c r="E7" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="73" t="s">
+      <c r="F7" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="70" t="s">
+      <c r="G7" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="75" t="s">
+      <c r="H7" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="77" t="s">
+      <c r="I7" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="77" t="s">
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="127"/>
+      <c r="M7" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="79"/>
-      <c r="O6" s="80" t="s">
+      <c r="N7" s="127"/>
+      <c r="O7" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="59" t="s">
+      <c r="P7" s="110"/>
+      <c r="Q7" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="R6" s="34" t="s">
+      <c r="R7" s="36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="4" t="s">
+    <row r="8" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="94"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="4" t="s">
+      <c r="Q8" s="86"/>
+      <c r="R8" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="18"/>
     </row>
     <row r="9" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
@@ -2170,7 +2914,7 @@
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
       <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
@@ -2326,223 +3070,408 @@
       <c r="Q17" s="16"/>
       <c r="R17" s="18"/>
     </row>
-    <row r="19" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="85" t="s">
+    <row r="18" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="18"/>
+    </row>
+    <row r="19" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="18"/>
+    </row>
+    <row r="20" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="18"/>
+    </row>
+    <row r="21" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="18"/>
+    </row>
+    <row r="22" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="18"/>
+    </row>
+    <row r="23" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="18"/>
+    </row>
+    <row r="24" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="22"/>
+    </row>
+    <row r="25" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="20"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="22"/>
+    </row>
+    <row r="26" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="20"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="22"/>
+    </row>
+    <row r="27" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="20"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="22"/>
+    </row>
+    <row r="28" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="22"/>
+    </row>
+    <row r="30" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
-      <c r="R19" s="5"/>
-    </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="C30" s="114"/>
+      <c r="D30" s="114"/>
+      <c r="R30" s="5"/>
+    </row>
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B31" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="86" t="s">
+      <c r="C31" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="6" t="s">
+      <c r="D31" s="80"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="86" t="s">
+      <c r="H31" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="I20" s="87"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="6" t="s">
+      <c r="I31" s="80"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="L31" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="M20" s="6" t="s">
+      <c r="M31" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="N31" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q20" s="5" t="s">
+      <c r="Q31" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="24" t="s">
+    <row r="32" spans="1:19" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B32" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="89" t="s">
+      <c r="C32" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="24" t="s">
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="89" t="s">
+      <c r="H32" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="I21" s="90"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="6" t="s">
+      <c r="I32" s="83"/>
+      <c r="J32" s="84"/>
+      <c r="K32" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L21" s="10"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="109"/>
-      <c r="O21" s="96"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="96"/>
-      <c r="R21" s="96"/>
-      <c r="S21" s="96"/>
-    </row>
-    <row r="22" spans="1:19" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="L32" s="10"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="77"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="64"/>
+      <c r="R32" s="64"/>
+      <c r="S32" s="64"/>
+    </row>
+    <row r="33" spans="1:19" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B33" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="97" t="s">
+      <c r="C33" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="98"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="7" t="s">
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="99" t="s">
+      <c r="H33" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="I22" s="100"/>
-      <c r="J22" s="101"/>
-      <c r="K22" s="6" t="s">
+      <c r="I33" s="68"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="102" t="s">
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="O22" s="103"/>
-      <c r="Q22" s="104" t="s">
+      <c r="O33" s="71"/>
+      <c r="Q33" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="R22" s="104"/>
-      <c r="S22" s="104"/>
-    </row>
-    <row r="23" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="R33" s="72"/>
+      <c r="S33" s="72"/>
+    </row>
+    <row r="34" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B34" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="99" t="s">
+      <c r="C34" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="7" t="s">
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="99" t="s">
+      <c r="H34" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="I23" s="100"/>
-      <c r="J23" s="101"/>
-      <c r="K23" s="105" t="s">
+      <c r="I34" s="68"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="L23" s="107"/>
-      <c r="M23" s="107"/>
-      <c r="N23" s="13" t="s">
+      <c r="L34" s="75"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O23" s="23" t="s">
+      <c r="O34" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="Q23" s="14" t="s">
+      <c r="Q34" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="R23" s="92" t="s">
+      <c r="R34" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="S23" s="92"/>
-    </row>
-    <row r="24" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+      <c r="S34" s="60"/>
+    </row>
+    <row r="35" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B35" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="93" t="s">
+      <c r="C35" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="25" t="s">
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="H24" s="93" t="s">
+      <c r="H35" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="I24" s="94"/>
-      <c r="J24" s="95"/>
-      <c r="K24" s="106"/>
-      <c r="L24" s="108"/>
-      <c r="M24" s="108"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="K6:M6"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="C3:D3"/>
@@ -2550,8 +3479,43 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="P3:R3"/>
-    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="M34:M35"/>
     <mergeCell ref="P5:R5"/>
+    <mergeCell ref="N32:O32"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="51" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -2559,15 +3523,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851DF26E-BF8A-4EAB-881C-57E587242C32}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00F7C05-7C03-4558-8A41-A3015FCFA1DF}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+      <selection activeCell="P5" sqref="P5:R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2593,228 +3557,229 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="117"/>
+      <c r="R2" s="117"/>
     </row>
     <row r="3" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="52"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="92"/>
       <c r="E3" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="54" t="s">
+      <c r="F3" s="90"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="52"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="92"/>
       <c r="O3" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
+      <c r="P3" s="120"/>
+      <c r="Q3" s="120"/>
+      <c r="R3" s="120"/>
     </row>
     <row r="4" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="62" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="63"/>
-      <c r="K4" s="26"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="28"/>
       <c r="L4" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="M4" s="26"/>
-      <c r="N4" s="27" t="s">
+      <c r="M4" s="28"/>
+      <c r="N4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="51"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="52"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="91"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="92"/>
     </row>
     <row r="5" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="42"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="41"/>
       <c r="J5" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="K5" s="114"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="116"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="129"/>
+      <c r="M5" s="130"/>
       <c r="N5" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="O5" s="121"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-    </row>
-    <row r="6" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+      <c r="O5" s="55"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+    </row>
+    <row r="6" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="49"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" s="90"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="142"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="137"/>
+      <c r="R6" s="53"/>
+    </row>
+    <row r="7" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="110" t="s">
+      <c r="B7" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C7" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D7" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="71" t="s">
+      <c r="E7" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="73" t="s">
+      <c r="F7" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="70" t="s">
+      <c r="G7" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="75" t="s">
+      <c r="H7" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="111" t="s">
+      <c r="I7" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="112"/>
-      <c r="K6" s="112"/>
-      <c r="L6" s="113"/>
-      <c r="M6" s="111" t="s">
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="127"/>
+      <c r="M7" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="113"/>
-      <c r="O6" s="80" t="s">
+      <c r="N7" s="127"/>
+      <c r="O7" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="59" t="s">
+      <c r="P7" s="110"/>
+      <c r="Q7" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="R6" s="36" t="s">
+      <c r="R7" s="40" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="4" t="s">
+    <row r="8" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="94"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="4" t="s">
+      <c r="Q8" s="86"/>
+      <c r="R8" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="18"/>
     </row>
     <row r="9" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
@@ -2840,7 +3805,7 @@
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
       <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
@@ -2976,7 +3941,7 @@
       <c r="Q16" s="16"/>
       <c r="R16" s="18"/>
     </row>
-    <row r="17" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="17"/>
       <c r="C17" s="18"/>
@@ -2996,7 +3961,7 @@
       <c r="Q17" s="16"/>
       <c r="R17" s="18"/>
     </row>
-    <row r="18" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="17"/>
       <c r="C18" s="18"/>
@@ -3016,7 +3981,7 @@
       <c r="Q18" s="16"/>
       <c r="R18" s="18"/>
     </row>
-    <row r="19" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="17"/>
       <c r="C19" s="18"/>
@@ -3036,7 +4001,7 @@
       <c r="Q19" s="16"/>
       <c r="R19" s="18"/>
     </row>
-    <row r="20" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="17"/>
       <c r="C20" s="18"/>
@@ -3056,7 +4021,7 @@
       <c r="Q20" s="16"/>
       <c r="R20" s="18"/>
     </row>
-    <row r="21" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="17"/>
       <c r="C21" s="18"/>
@@ -3076,7 +4041,7 @@
       <c r="Q21" s="16"/>
       <c r="R21" s="18"/>
     </row>
-    <row r="22" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="B22" s="17"/>
       <c r="C22" s="18"/>
@@ -3096,27 +4061,27 @@
       <c r="Q22" s="16"/>
       <c r="R22" s="18"/>
     </row>
-    <row r="23" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="22"/>
-    </row>
-    <row r="24" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="18"/>
+    </row>
+    <row r="24" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
       <c r="B24" s="21"/>
       <c r="C24" s="22"/>
@@ -3136,7 +4101,7 @@
       <c r="Q24" s="20"/>
       <c r="R24" s="22"/>
     </row>
-    <row r="25" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20"/>
       <c r="B25" s="21"/>
       <c r="C25" s="22"/>
@@ -3156,7 +4121,7 @@
       <c r="Q25" s="20"/>
       <c r="R25" s="22"/>
     </row>
-    <row r="26" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
       <c r="B26" s="21"/>
       <c r="C26" s="22"/>
@@ -3176,7 +4141,7 @@
       <c r="Q26" s="20"/>
       <c r="R26" s="22"/>
     </row>
-    <row r="27" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20"/>
       <c r="B27" s="21"/>
       <c r="C27" s="22"/>
@@ -3196,224 +4161,444 @@
       <c r="Q27" s="20"/>
       <c r="R27" s="22"/>
     </row>
-    <row r="29" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="47" t="s">
+    <row r="28" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="22"/>
+    </row>
+    <row r="29" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="18"/>
+    </row>
+    <row r="30" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="18"/>
+    </row>
+    <row r="31" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="18"/>
+    </row>
+    <row r="32" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="18"/>
+    </row>
+    <row r="33" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="18"/>
+    </row>
+    <row r="34" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="18"/>
+    </row>
+    <row r="35" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="18"/>
+    </row>
+    <row r="36" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="16"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="18"/>
+    </row>
+    <row r="37" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="16"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="18"/>
+    </row>
+    <row r="38" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="16"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="18"/>
+    </row>
+    <row r="40" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="R29" s="5"/>
-    </row>
-    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="C40" s="114"/>
+      <c r="D40" s="114"/>
+      <c r="R40" s="5"/>
+    </row>
+    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B41" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="86" t="s">
+      <c r="C41" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="6" t="s">
+      <c r="D41" s="80"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H30" s="86" t="s">
+      <c r="H41" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="I30" s="87"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="6" t="s">
+      <c r="I41" s="80"/>
+      <c r="J41" s="81"/>
+      <c r="K41" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L30" s="6" t="s">
+      <c r="L41" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="M30" s="6" t="s">
+      <c r="M41" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="N41" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q30" s="5" t="s">
+      <c r="Q41" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="24" t="s">
+    <row r="42" spans="1:19" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B42" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="89" t="s">
+      <c r="C42" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="24" t="s">
+      <c r="D42" s="83"/>
+      <c r="E42" s="83"/>
+      <c r="F42" s="83"/>
+      <c r="G42" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="H31" s="89" t="s">
+      <c r="H42" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="I31" s="90"/>
-      <c r="J31" s="91"/>
-      <c r="K31" s="6" t="s">
+      <c r="I42" s="83"/>
+      <c r="J42" s="84"/>
+      <c r="K42" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L31" s="10"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="109"/>
-      <c r="O31" s="96"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="96"/>
-      <c r="R31" s="96"/>
-      <c r="S31" s="96"/>
-    </row>
-    <row r="32" spans="1:19" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="L42" s="10"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="77"/>
+      <c r="O42" s="64"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="64"/>
+      <c r="R42" s="64"/>
+      <c r="S42" s="64"/>
+    </row>
+    <row r="43" spans="1:19" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B43" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="97" t="s">
+      <c r="C43" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="98"/>
-      <c r="E32" s="98"/>
-      <c r="F32" s="98"/>
-      <c r="G32" s="7" t="s">
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H32" s="99" t="s">
+      <c r="H43" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="I32" s="100"/>
-      <c r="J32" s="101"/>
-      <c r="K32" s="6" t="s">
+      <c r="I43" s="68"/>
+      <c r="J43" s="69"/>
+      <c r="K43" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="102" t="s">
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="O32" s="103"/>
-      <c r="Q32" s="104" t="s">
+      <c r="O43" s="71"/>
+      <c r="Q43" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="R32" s="104"/>
-      <c r="S32" s="104"/>
-    </row>
-    <row r="33" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="R43" s="72"/>
+      <c r="S43" s="72"/>
+    </row>
+    <row r="44" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B44" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="99" t="s">
+      <c r="C44" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="100"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="100"/>
-      <c r="G33" s="7" t="s">
+      <c r="D44" s="68"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H33" s="99" t="s">
+      <c r="H44" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="I33" s="100"/>
-      <c r="J33" s="101"/>
-      <c r="K33" s="105" t="s">
+      <c r="I44" s="68"/>
+      <c r="J44" s="69"/>
+      <c r="K44" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="L33" s="107"/>
-      <c r="M33" s="107"/>
-      <c r="N33" s="13" t="s">
+      <c r="L44" s="75"/>
+      <c r="M44" s="75"/>
+      <c r="N44" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O33" s="23" t="s">
+      <c r="O44" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="Q33" s="14" t="s">
+      <c r="Q44" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="R33" s="92" t="s">
+      <c r="R44" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="S33" s="92"/>
-    </row>
-    <row r="34" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
+      <c r="S44" s="60"/>
+    </row>
+    <row r="45" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B45" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="93" t="s">
+      <c r="C45" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="94"/>
-      <c r="E34" s="94"/>
-      <c r="F34" s="94"/>
-      <c r="G34" s="25" t="s">
+      <c r="D45" s="62"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="H34" s="93" t="s">
+      <c r="H45" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="I34" s="94"/>
-      <c r="J34" s="95"/>
-      <c r="K34" s="106"/>
-      <c r="L34" s="108"/>
-      <c r="M34" s="108"/>
+      <c r="I45" s="62"/>
+      <c r="J45" s="63"/>
+      <c r="K45" s="74"/>
+      <c r="L45" s="76"/>
+      <c r="M45" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="Q6:Q7"/>
+  <mergeCells count="45">
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="Q43:S43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="Q7:Q8"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="O4:R4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="P5:R5"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="C3:D3"/>
@@ -3421,6 +4606,7 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="P3:R3"/>
+    <mergeCell ref="K5:M5"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="51" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -3428,15 +4614,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00F7C05-7C03-4558-8A41-A3015FCFA1DF}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52EFA776-4310-4334-8B90-732798024DB7}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S44"/>
+  <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+      <selection activeCell="W8" sqref="V8:W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3462,89 +4648,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="117"/>
+      <c r="R2" s="117"/>
     </row>
     <row r="3" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="52"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="92"/>
       <c r="E3" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="54" t="s">
+      <c r="F3" s="90"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="52"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="92"/>
       <c r="O3" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
+      <c r="P3" s="120"/>
+      <c r="Q3" s="120"/>
+      <c r="R3" s="120"/>
     </row>
     <row r="4" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="117" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="118"/>
+      <c r="J4" s="132"/>
       <c r="K4" s="28"/>
       <c r="L4" s="39" t="s">
         <v>62</v>
@@ -3553,137 +4739,138 @@
       <c r="N4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="51"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="52"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="91"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="92"/>
     </row>
     <row r="5" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="37"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="35" t="s">
+      <c r="B5" s="45"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="K5" s="114"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="37" t="s">
+      <c r="K5" s="128"/>
+      <c r="L5" s="129"/>
+      <c r="M5" s="130"/>
+      <c r="N5" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="O5" s="121"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-    </row>
-    <row r="6" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+      <c r="O5" s="43"/>
+      <c r="P5" s="129"/>
+      <c r="Q5" s="129"/>
+      <c r="R5" s="129"/>
+    </row>
+    <row r="6" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="49"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" s="90"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="137"/>
+      <c r="R6" s="53"/>
+    </row>
+    <row r="7" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="110" t="s">
+      <c r="B7" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C7" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D7" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="71" t="s">
+      <c r="E7" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="119" t="s">
+      <c r="F7" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="70" t="s">
+      <c r="G7" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="75" t="s">
+      <c r="H7" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="111" t="s">
+      <c r="I7" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="112"/>
-      <c r="K6" s="112"/>
-      <c r="L6" s="113"/>
-      <c r="M6" s="111" t="s">
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="127"/>
+      <c r="M7" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="113"/>
-      <c r="O6" s="80" t="s">
+      <c r="N7" s="127"/>
+      <c r="O7" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="59" t="s">
+      <c r="P7" s="110"/>
+      <c r="Q7" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="R6" s="40" t="s">
+      <c r="R7" s="44" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="4" t="s">
+    <row r="8" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="94"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="4" t="s">
+      <c r="Q8" s="86"/>
+      <c r="R8" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="18"/>
     </row>
     <row r="9" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
@@ -3709,7 +4896,7 @@
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
       <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
@@ -3966,24 +5153,24 @@
       <c r="R22" s="18"/>
     </row>
     <row r="23" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="22"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="18"/>
     </row>
     <row r="24" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
@@ -4066,24 +5253,24 @@
       <c r="R27" s="22"/>
     </row>
     <row r="28" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="18"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="22"/>
     </row>
     <row r="29" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
@@ -4109,7 +5296,7 @@
       <c r="A30" s="16"/>
       <c r="B30" s="17"/>
       <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
+      <c r="D30" s="19"/>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
@@ -4165,7 +5352,7 @@
       <c r="Q32" s="16"/>
       <c r="R32" s="18"/>
     </row>
-    <row r="33" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
       <c r="B33" s="17"/>
       <c r="C33" s="18"/>
@@ -4185,7 +5372,7 @@
       <c r="Q33" s="16"/>
       <c r="R33" s="18"/>
     </row>
-    <row r="34" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
       <c r="B34" s="17"/>
       <c r="C34" s="18"/>
@@ -4205,7 +5392,7 @@
       <c r="Q34" s="16"/>
       <c r="R34" s="18"/>
     </row>
-    <row r="35" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
       <c r="B35" s="17"/>
       <c r="C35" s="18"/>
@@ -4225,7 +5412,7 @@
       <c r="Q35" s="16"/>
       <c r="R35" s="18"/>
     </row>
-    <row r="36" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16"/>
       <c r="B36" s="17"/>
       <c r="C36" s="18"/>
@@ -4245,7 +5432,7 @@
       <c r="Q36" s="16"/>
       <c r="R36" s="18"/>
     </row>
-    <row r="37" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
       <c r="B37" s="17"/>
       <c r="C37" s="18"/>
@@ -4265,187 +5452,444 @@
       <c r="Q37" s="16"/>
       <c r="R37" s="18"/>
     </row>
-    <row r="39" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="47" t="s">
+    <row r="38" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="16"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="18"/>
+    </row>
+    <row r="39" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="18"/>
+    </row>
+    <row r="40" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="16"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="18"/>
+    </row>
+    <row r="41" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="18"/>
+    </row>
+    <row r="42" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="16"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="18"/>
+    </row>
+    <row r="43" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="16"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="18"/>
+    </row>
+    <row r="44" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="20"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="22"/>
+    </row>
+    <row r="45" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="20"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="22"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="22"/>
+    </row>
+    <row r="46" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="20"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="22"/>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="22"/>
+    </row>
+    <row r="47" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="20"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="22"/>
+    </row>
+    <row r="48" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="20"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="22"/>
+    </row>
+    <row r="50" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="R39" s="5"/>
-    </row>
-    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+      <c r="C50" s="114"/>
+      <c r="D50" s="114"/>
+      <c r="R50" s="5"/>
+    </row>
+    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B51" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="86" t="s">
+      <c r="C51" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="87"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="6" t="s">
+      <c r="D51" s="80"/>
+      <c r="E51" s="80"/>
+      <c r="F51" s="81"/>
+      <c r="G51" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H40" s="86" t="s">
+      <c r="H51" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="I40" s="87"/>
-      <c r="J40" s="88"/>
-      <c r="K40" s="6" t="s">
+      <c r="I51" s="80"/>
+      <c r="J51" s="81"/>
+      <c r="K51" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L40" s="6" t="s">
+      <c r="L51" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="M40" s="6" t="s">
+      <c r="M51" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="N40" s="1" t="s">
+      <c r="N51" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q40" s="5" t="s">
+      <c r="Q51" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="31" t="s">
+    <row r="52" spans="1:19" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B52" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="89" t="s">
+      <c r="C52" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="90"/>
-      <c r="E41" s="90"/>
-      <c r="F41" s="90"/>
-      <c r="G41" s="31" t="s">
+      <c r="D52" s="83"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="H41" s="89" t="s">
+      <c r="H52" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="I41" s="90"/>
-      <c r="J41" s="91"/>
-      <c r="K41" s="6" t="s">
+      <c r="I52" s="83"/>
+      <c r="J52" s="84"/>
+      <c r="K52" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L41" s="10"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="109"/>
-      <c r="O41" s="96"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="96"/>
-      <c r="R41" s="96"/>
-      <c r="S41" s="96"/>
-    </row>
-    <row r="42" spans="1:19" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="L52" s="10"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="77"/>
+      <c r="O52" s="64"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="64"/>
+      <c r="R52" s="64"/>
+      <c r="S52" s="64"/>
+    </row>
+    <row r="53" spans="1:19" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B53" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="97" t="s">
+      <c r="C53" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="D42" s="98"/>
-      <c r="E42" s="98"/>
-      <c r="F42" s="98"/>
-      <c r="G42" s="7" t="s">
+      <c r="D53" s="66"/>
+      <c r="E53" s="66"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H42" s="99" t="s">
+      <c r="H53" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="I42" s="100"/>
-      <c r="J42" s="101"/>
-      <c r="K42" s="6" t="s">
+      <c r="I53" s="68"/>
+      <c r="J53" s="69"/>
+      <c r="K53" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="102" t="s">
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="O42" s="103"/>
-      <c r="Q42" s="104" t="s">
+      <c r="O53" s="71"/>
+      <c r="Q53" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="R42" s="104"/>
-      <c r="S42" s="104"/>
-    </row>
-    <row r="43" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+      <c r="R53" s="72"/>
+      <c r="S53" s="72"/>
+    </row>
+    <row r="54" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B54" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="99" t="s">
+      <c r="C54" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="D43" s="100"/>
-      <c r="E43" s="100"/>
-      <c r="F43" s="100"/>
-      <c r="G43" s="7" t="s">
+      <c r="D54" s="68"/>
+      <c r="E54" s="68"/>
+      <c r="F54" s="68"/>
+      <c r="G54" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H43" s="99" t="s">
+      <c r="H54" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="I43" s="100"/>
-      <c r="J43" s="101"/>
-      <c r="K43" s="105" t="s">
+      <c r="I54" s="68"/>
+      <c r="J54" s="69"/>
+      <c r="K54" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="L43" s="107"/>
-      <c r="M43" s="107"/>
-      <c r="N43" s="13" t="s">
+      <c r="L54" s="75"/>
+      <c r="M54" s="75"/>
+      <c r="N54" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O43" s="30" t="s">
+      <c r="O54" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="Q43" s="14" t="s">
+      <c r="Q54" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="R43" s="92" t="s">
+      <c r="R54" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="S43" s="92"/>
-    </row>
-    <row r="44" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="32" t="s">
+      <c r="S54" s="60"/>
+    </row>
+    <row r="55" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="32" t="s">
+      <c r="B55" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="93" t="s">
+      <c r="C55" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="D44" s="94"/>
-      <c r="E44" s="94"/>
-      <c r="F44" s="94"/>
-      <c r="G44" s="32" t="s">
+      <c r="D55" s="62"/>
+      <c r="E55" s="62"/>
+      <c r="F55" s="62"/>
+      <c r="G55" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="H44" s="93" t="s">
+      <c r="H55" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="I44" s="94"/>
-      <c r="J44" s="95"/>
-      <c r="K44" s="106"/>
-      <c r="L44" s="108"/>
-      <c r="M44" s="108"/>
+      <c r="I55" s="62"/>
+      <c r="J55" s="63"/>
+      <c r="K55" s="74"/>
+      <c r="L55" s="76"/>
+      <c r="M55" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="45">
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="Q52:S52"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="Q53:S53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="C5:H5"/>
     <mergeCell ref="P5:R5"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
@@ -4454,42 +5898,6 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="P3:R3"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="Q42:S42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="N41:O41"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="51" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -4497,15 +5905,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52EFA776-4310-4334-8B90-732798024DB7}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65AE5F4-AFC3-490C-9036-DE30E26DCE1C}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S54"/>
+  <dimension ref="A1:S65"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4531,89 +5939,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="117"/>
+      <c r="R2" s="117"/>
     </row>
     <row r="3" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="52"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="92"/>
       <c r="E3" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="54" t="s">
+      <c r="F3" s="90"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="52"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="92"/>
       <c r="O3" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
+      <c r="P3" s="120"/>
+      <c r="Q3" s="120"/>
+      <c r="R3" s="120"/>
     </row>
     <row r="4" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="117" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="118"/>
+      <c r="J4" s="132"/>
       <c r="K4" s="28"/>
       <c r="L4" s="39" t="s">
         <v>62</v>
@@ -4622,137 +6030,138 @@
       <c r="N4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="51"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="52"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="91"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="92"/>
     </row>
     <row r="5" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="45"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
       <c r="I5" s="46"/>
       <c r="J5" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="K5" s="114"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="116"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="129"/>
+      <c r="M5" s="130"/>
       <c r="N5" s="45" t="s">
         <v>69</v>
       </c>
       <c r="O5" s="43"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-    </row>
-    <row r="6" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+      <c r="P5" s="129"/>
+      <c r="Q5" s="129"/>
+      <c r="R5" s="129"/>
+    </row>
+    <row r="6" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="49"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" s="90"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="137"/>
+      <c r="R6" s="53"/>
+    </row>
+    <row r="7" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="110" t="s">
+      <c r="B7" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C7" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D7" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="71" t="s">
+      <c r="E7" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="73" t="s">
+      <c r="F7" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="70" t="s">
+      <c r="G7" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="75" t="s">
+      <c r="H7" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="111" t="s">
+      <c r="I7" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="112"/>
-      <c r="K6" s="112"/>
-      <c r="L6" s="113"/>
-      <c r="M6" s="111" t="s">
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="127"/>
+      <c r="M7" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="113"/>
-      <c r="O6" s="120" t="s">
+      <c r="N7" s="127"/>
+      <c r="O7" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="59" t="s">
+      <c r="P7" s="110"/>
+      <c r="Q7" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="R6" s="44" t="s">
+      <c r="R7" s="44" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="4" t="s">
+    <row r="8" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="94"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="4" t="s">
+      <c r="Q8" s="86"/>
+      <c r="R8" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="18"/>
     </row>
     <row r="9" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
@@ -4778,7 +6187,7 @@
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
       <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
@@ -5035,24 +6444,24 @@
       <c r="R22" s="18"/>
     </row>
     <row r="23" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="22"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="18"/>
     </row>
     <row r="24" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
@@ -5135,24 +6544,24 @@
       <c r="R27" s="22"/>
     </row>
     <row r="28" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="18"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="22"/>
     </row>
     <row r="29" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
@@ -5178,7 +6587,7 @@
       <c r="A30" s="16"/>
       <c r="B30" s="17"/>
       <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
+      <c r="D30" s="19"/>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
@@ -5435,24 +6844,24 @@
       <c r="R42" s="18"/>
     </row>
     <row r="43" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="22"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="18"/>
     </row>
     <row r="44" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20"/>
@@ -5534,190 +6943,445 @@
       <c r="Q47" s="20"/>
       <c r="R47" s="22"/>
     </row>
-    <row r="49" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="47" t="s">
+    <row r="48" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="20"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="22"/>
+    </row>
+    <row r="49" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="16"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="16"/>
+      <c r="R49" s="18"/>
+    </row>
+    <row r="50" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="16"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="18"/>
+      <c r="Q50" s="16"/>
+      <c r="R50" s="18"/>
+    </row>
+    <row r="51" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="16"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="18"/>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="16"/>
+      <c r="R51" s="18"/>
+    </row>
+    <row r="52" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="16"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="18"/>
+      <c r="O52" s="18"/>
+      <c r="P52" s="18"/>
+      <c r="Q52" s="16"/>
+      <c r="R52" s="18"/>
+    </row>
+    <row r="53" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="16"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="18"/>
+      <c r="Q53" s="16"/>
+      <c r="R53" s="18"/>
+    </row>
+    <row r="54" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="16"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="18"/>
+      <c r="P54" s="18"/>
+      <c r="Q54" s="16"/>
+      <c r="R54" s="18"/>
+    </row>
+    <row r="55" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="16"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="18"/>
+      <c r="Q55" s="16"/>
+      <c r="R55" s="18"/>
+    </row>
+    <row r="56" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="16"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="18"/>
+      <c r="O56" s="18"/>
+      <c r="P56" s="18"/>
+      <c r="Q56" s="16"/>
+      <c r="R56" s="18"/>
+    </row>
+    <row r="57" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="16"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="18"/>
+      <c r="O57" s="18"/>
+      <c r="P57" s="18"/>
+      <c r="Q57" s="16"/>
+      <c r="R57" s="18"/>
+    </row>
+    <row r="58" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="16"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="18"/>
+      <c r="O58" s="18"/>
+      <c r="P58" s="18"/>
+      <c r="Q58" s="16"/>
+      <c r="R58" s="18"/>
+    </row>
+    <row r="60" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="R49" s="5"/>
-    </row>
-    <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+      <c r="C60" s="114"/>
+      <c r="D60" s="114"/>
+      <c r="R60" s="5"/>
+    </row>
+    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B61" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="86" t="s">
+      <c r="C61" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="F50" s="88"/>
-      <c r="G50" s="6" t="s">
+      <c r="D61" s="80"/>
+      <c r="E61" s="80"/>
+      <c r="F61" s="81"/>
+      <c r="G61" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H50" s="86" t="s">
+      <c r="H61" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="I50" s="87"/>
-      <c r="J50" s="88"/>
-      <c r="K50" s="6" t="s">
+      <c r="I61" s="80"/>
+      <c r="J61" s="81"/>
+      <c r="K61" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L50" s="6" t="s">
+      <c r="L61" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="M50" s="6" t="s">
+      <c r="M61" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="N50" s="1" t="s">
+      <c r="N61" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q50" s="5" t="s">
+      <c r="Q61" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="31" t="s">
+    <row r="62" spans="1:19" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B62" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="89" t="s">
+      <c r="C62" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="D51" s="90"/>
-      <c r="E51" s="90"/>
-      <c r="F51" s="90"/>
-      <c r="G51" s="31" t="s">
+      <c r="D62" s="83"/>
+      <c r="E62" s="83"/>
+      <c r="F62" s="83"/>
+      <c r="G62" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="H51" s="89" t="s">
+      <c r="H62" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="I51" s="90"/>
-      <c r="J51" s="91"/>
-      <c r="K51" s="6" t="s">
+      <c r="I62" s="83"/>
+      <c r="J62" s="84"/>
+      <c r="K62" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L51" s="10"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="109"/>
-      <c r="O51" s="96"/>
-      <c r="P51" s="11"/>
-      <c r="Q51" s="96"/>
-      <c r="R51" s="96"/>
-      <c r="S51" s="96"/>
-    </row>
-    <row r="52" spans="1:19" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
+      <c r="L62" s="10"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="77"/>
+      <c r="O62" s="64"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="64"/>
+      <c r="R62" s="64"/>
+      <c r="S62" s="64"/>
+    </row>
+    <row r="63" spans="1:19" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B63" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="97" t="s">
+      <c r="C63" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="D52" s="98"/>
-      <c r="E52" s="98"/>
-      <c r="F52" s="98"/>
-      <c r="G52" s="7" t="s">
+      <c r="D63" s="66"/>
+      <c r="E63" s="66"/>
+      <c r="F63" s="66"/>
+      <c r="G63" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H52" s="99" t="s">
+      <c r="H63" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="I52" s="100"/>
-      <c r="J52" s="101"/>
-      <c r="K52" s="6" t="s">
+      <c r="I63" s="68"/>
+      <c r="J63" s="69"/>
+      <c r="K63" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="102" t="s">
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="O52" s="103"/>
-      <c r="Q52" s="104" t="s">
+      <c r="O63" s="71"/>
+      <c r="Q63" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="R52" s="104"/>
-      <c r="S52" s="104"/>
-    </row>
-    <row r="53" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
+      <c r="R63" s="72"/>
+      <c r="S63" s="72"/>
+    </row>
+    <row r="64" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B64" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C53" s="99" t="s">
+      <c r="C64" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="D53" s="100"/>
-      <c r="E53" s="100"/>
-      <c r="F53" s="100"/>
-      <c r="G53" s="7" t="s">
+      <c r="D64" s="68"/>
+      <c r="E64" s="68"/>
+      <c r="F64" s="68"/>
+      <c r="G64" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H53" s="99" t="s">
+      <c r="H64" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="I53" s="100"/>
-      <c r="J53" s="101"/>
-      <c r="K53" s="105" t="s">
+      <c r="I64" s="68"/>
+      <c r="J64" s="69"/>
+      <c r="K64" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="L53" s="107"/>
-      <c r="M53" s="107"/>
-      <c r="N53" s="13" t="s">
+      <c r="L64" s="75"/>
+      <c r="M64" s="75"/>
+      <c r="N64" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O53" s="30" t="s">
+      <c r="O64" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="Q53" s="14" t="s">
+      <c r="Q64" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="R53" s="92" t="s">
+      <c r="R64" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="S53" s="92"/>
-    </row>
-    <row r="54" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="32" t="s">
+      <c r="S64" s="60"/>
+    </row>
+    <row r="65" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B54" s="32" t="s">
+      <c r="B65" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C54" s="93" t="s">
+      <c r="C65" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="D54" s="94"/>
-      <c r="E54" s="94"/>
-      <c r="F54" s="94"/>
-      <c r="G54" s="32" t="s">
+      <c r="D65" s="62"/>
+      <c r="E65" s="62"/>
+      <c r="F65" s="62"/>
+      <c r="G65" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="H54" s="93" t="s">
+      <c r="H65" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="I54" s="94"/>
-      <c r="J54" s="95"/>
-      <c r="K54" s="106"/>
-      <c r="L54" s="108"/>
-      <c r="M54" s="108"/>
+      <c r="I65" s="62"/>
+      <c r="J65" s="63"/>
+      <c r="K65" s="74"/>
+      <c r="L65" s="76"/>
+      <c r="M65" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="45">
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="R64:S64"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="Q62:S62"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="Q63:S63"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="L64:L65"/>
+    <mergeCell ref="M64:M65"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="C62:F62"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
     <mergeCell ref="K5:M5"/>
+    <mergeCell ref="P5:R5"/>
     <mergeCell ref="C5:H5"/>
-    <mergeCell ref="P5:R5"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="C3:D3"/>
@@ -5725,40 +7389,6 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="P3:R3"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="Q51:S51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="Q52:S52"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="N51:O51"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="51" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -5766,15 +7396,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65AE5F4-AFC3-490C-9036-DE30E26DCE1C}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3BF5B0D-9918-4D1D-90A8-EB16EFDF78E4}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S64"/>
+  <dimension ref="A1:S75"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5800,228 +7430,229 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="117"/>
+      <c r="R2" s="117"/>
     </row>
     <row r="3" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="52"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="92"/>
       <c r="E3" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="54" t="s">
+      <c r="F3" s="90"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="52"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="92"/>
       <c r="O3" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
+      <c r="P3" s="120"/>
+      <c r="Q3" s="120"/>
+      <c r="R3" s="120"/>
     </row>
     <row r="4" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="117" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="118"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="39" t="s">
+      <c r="J4" s="132"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="M4" s="28"/>
+      <c r="M4" s="58"/>
       <c r="N4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="51"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="52"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="91"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="92"/>
     </row>
     <row r="5" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="45"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
       <c r="I5" s="46"/>
       <c r="J5" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="K5" s="114"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="116"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="92"/>
       <c r="N5" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="O5" s="43"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-    </row>
-    <row r="6" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+      <c r="O5" s="59"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+    </row>
+    <row r="6" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="49"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" s="90"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="137"/>
+      <c r="R6" s="53"/>
+    </row>
+    <row r="7" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="110" t="s">
+      <c r="B7" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C7" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D7" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="71" t="s">
+      <c r="E7" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="73" t="s">
+      <c r="F7" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="70" t="s">
+      <c r="G7" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="75" t="s">
+      <c r="H7" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="111" t="s">
+      <c r="I7" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="112"/>
-      <c r="K6" s="112"/>
-      <c r="L6" s="113"/>
-      <c r="M6" s="111" t="s">
+      <c r="J7" s="126"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="113"/>
-      <c r="O6" s="120" t="s">
+      <c r="N7" s="127"/>
+      <c r="O7" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="59" t="s">
+      <c r="P7" s="110"/>
+      <c r="Q7" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="R6" s="44" t="s">
+      <c r="R7" s="44" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="4" t="s">
+    <row r="8" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="94"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="4" t="s">
+      <c r="Q8" s="86"/>
+      <c r="R8" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="18"/>
     </row>
     <row r="9" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
@@ -6047,7 +7678,7 @@
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
       <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
@@ -6304,24 +7935,24 @@
       <c r="R22" s="18"/>
     </row>
     <row r="23" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="22"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="18"/>
     </row>
     <row r="24" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
@@ -6404,24 +8035,24 @@
       <c r="R27" s="22"/>
     </row>
     <row r="28" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="18"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="22"/>
     </row>
     <row r="29" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
@@ -6447,7 +8078,7 @@
       <c r="A30" s="16"/>
       <c r="B30" s="17"/>
       <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
+      <c r="D30" s="19"/>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
@@ -6704,24 +8335,24 @@
       <c r="R42" s="18"/>
     </row>
     <row r="43" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="22"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="18"/>
     </row>
     <row r="44" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20"/>
@@ -6804,26 +8435,26 @@
       <c r="R47" s="22"/>
     </row>
     <row r="48" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
-      <c r="L48" s="18"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="18"/>
-      <c r="O48" s="18"/>
-      <c r="P48" s="18"/>
-      <c r="Q48" s="16"/>
-      <c r="R48" s="18"/>
-    </row>
-    <row r="49" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="20"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="22"/>
+    </row>
+    <row r="49" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16"/>
       <c r="B49" s="17"/>
       <c r="C49" s="18"/>
@@ -6843,11 +8474,11 @@
       <c r="Q49" s="16"/>
       <c r="R49" s="18"/>
     </row>
-    <row r="50" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16"/>
       <c r="B50" s="17"/>
       <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
+      <c r="D50" s="19"/>
       <c r="E50" s="18"/>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
@@ -6863,7 +8494,7 @@
       <c r="Q50" s="16"/>
       <c r="R50" s="18"/>
     </row>
-    <row r="51" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16"/>
       <c r="B51" s="17"/>
       <c r="C51" s="18"/>
@@ -6883,7 +8514,7 @@
       <c r="Q51" s="16"/>
       <c r="R51" s="18"/>
     </row>
-    <row r="52" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16"/>
       <c r="B52" s="17"/>
       <c r="C52" s="18"/>
@@ -6903,7 +8534,7 @@
       <c r="Q52" s="16"/>
       <c r="R52" s="18"/>
     </row>
-    <row r="53" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16"/>
       <c r="B53" s="17"/>
       <c r="C53" s="18"/>
@@ -6923,7 +8554,7 @@
       <c r="Q53" s="16"/>
       <c r="R53" s="18"/>
     </row>
-    <row r="54" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16"/>
       <c r="B54" s="17"/>
       <c r="C54" s="18"/>
@@ -6943,7 +8574,7 @@
       <c r="Q54" s="16"/>
       <c r="R54" s="18"/>
     </row>
-    <row r="55" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16"/>
       <c r="B55" s="17"/>
       <c r="C55" s="18"/>
@@ -6963,7 +8594,7 @@
       <c r="Q55" s="16"/>
       <c r="R55" s="18"/>
     </row>
-    <row r="56" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16"/>
       <c r="B56" s="17"/>
       <c r="C56" s="18"/>
@@ -6983,7 +8614,7 @@
       <c r="Q56" s="16"/>
       <c r="R56" s="18"/>
     </row>
-    <row r="57" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16"/>
       <c r="B57" s="17"/>
       <c r="C57" s="18"/>
@@ -7003,187 +8634,443 @@
       <c r="Q57" s="16"/>
       <c r="R57" s="18"/>
     </row>
-    <row r="59" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="47" t="s">
+    <row r="58" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="16"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="18"/>
+      <c r="O58" s="18"/>
+      <c r="P58" s="18"/>
+      <c r="Q58" s="16"/>
+      <c r="R58" s="18"/>
+    </row>
+    <row r="59" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="16"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="18"/>
+      <c r="O59" s="18"/>
+      <c r="P59" s="18"/>
+      <c r="Q59" s="16"/>
+      <c r="R59" s="18"/>
+    </row>
+    <row r="60" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="16"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="18"/>
+      <c r="M60" s="18"/>
+      <c r="N60" s="18"/>
+      <c r="O60" s="18"/>
+      <c r="P60" s="18"/>
+      <c r="Q60" s="16"/>
+      <c r="R60" s="18"/>
+    </row>
+    <row r="61" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="16"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="18"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="18"/>
+      <c r="N61" s="18"/>
+      <c r="O61" s="18"/>
+      <c r="P61" s="18"/>
+      <c r="Q61" s="16"/>
+      <c r="R61" s="18"/>
+    </row>
+    <row r="62" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="16"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="18"/>
+      <c r="L62" s="18"/>
+      <c r="M62" s="18"/>
+      <c r="N62" s="18"/>
+      <c r="O62" s="18"/>
+      <c r="P62" s="18"/>
+      <c r="Q62" s="16"/>
+      <c r="R62" s="18"/>
+    </row>
+    <row r="63" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="16"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="18"/>
+      <c r="N63" s="18"/>
+      <c r="O63" s="18"/>
+      <c r="P63" s="18"/>
+      <c r="Q63" s="16"/>
+      <c r="R63" s="18"/>
+    </row>
+    <row r="64" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="20"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="22"/>
+      <c r="M64" s="22"/>
+      <c r="N64" s="22"/>
+      <c r="O64" s="22"/>
+      <c r="P64" s="22"/>
+      <c r="Q64" s="20"/>
+      <c r="R64" s="22"/>
+    </row>
+    <row r="65" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="20"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="22"/>
+      <c r="M65" s="22"/>
+      <c r="N65" s="22"/>
+      <c r="O65" s="22"/>
+      <c r="P65" s="22"/>
+      <c r="Q65" s="20"/>
+      <c r="R65" s="22"/>
+    </row>
+    <row r="66" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="20"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="22"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="22"/>
+      <c r="O66" s="22"/>
+      <c r="P66" s="22"/>
+      <c r="Q66" s="20"/>
+      <c r="R66" s="22"/>
+    </row>
+    <row r="67" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="20"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="22"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="22"/>
+      <c r="O67" s="22"/>
+      <c r="P67" s="22"/>
+      <c r="Q67" s="20"/>
+      <c r="R67" s="22"/>
+    </row>
+    <row r="68" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="20"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="22"/>
+      <c r="L68" s="22"/>
+      <c r="M68" s="22"/>
+      <c r="N68" s="22"/>
+      <c r="O68" s="22"/>
+      <c r="P68" s="22"/>
+      <c r="Q68" s="20"/>
+      <c r="R68" s="22"/>
+    </row>
+    <row r="70" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
-      <c r="R59" s="5"/>
-    </row>
-    <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
+      <c r="C70" s="114"/>
+      <c r="D70" s="114"/>
+      <c r="R70" s="5"/>
+    </row>
+    <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B71" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C60" s="86" t="s">
+      <c r="C71" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="D60" s="87"/>
-      <c r="E60" s="87"/>
-      <c r="F60" s="88"/>
-      <c r="G60" s="6" t="s">
+      <c r="D71" s="80"/>
+      <c r="E71" s="80"/>
+      <c r="F71" s="81"/>
+      <c r="G71" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H60" s="86" t="s">
+      <c r="H71" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="I60" s="87"/>
-      <c r="J60" s="88"/>
-      <c r="K60" s="6" t="s">
+      <c r="I71" s="80"/>
+      <c r="J71" s="81"/>
+      <c r="K71" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L60" s="6" t="s">
+      <c r="L71" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="M60" s="6" t="s">
+      <c r="M71" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="N60" s="1" t="s">
+      <c r="N71" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q60" s="5" t="s">
+      <c r="Q71" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="31" t="s">
+    <row r="72" spans="1:19" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B72" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C61" s="89" t="s">
+      <c r="C72" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="D61" s="90"/>
-      <c r="E61" s="90"/>
-      <c r="F61" s="90"/>
-      <c r="G61" s="31" t="s">
+      <c r="D72" s="83"/>
+      <c r="E72" s="83"/>
+      <c r="F72" s="83"/>
+      <c r="G72" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="H61" s="89" t="s">
+      <c r="H72" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="I61" s="90"/>
-      <c r="J61" s="91"/>
-      <c r="K61" s="6" t="s">
+      <c r="I72" s="83"/>
+      <c r="J72" s="84"/>
+      <c r="K72" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L61" s="10"/>
-      <c r="M61" s="12"/>
-      <c r="N61" s="109"/>
-      <c r="O61" s="96"/>
-      <c r="P61" s="11"/>
-      <c r="Q61" s="96"/>
-      <c r="R61" s="96"/>
-      <c r="S61" s="96"/>
-    </row>
-    <row r="62" spans="1:19" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
+      <c r="L72" s="10"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="77"/>
+      <c r="O72" s="64"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="64"/>
+      <c r="R72" s="64"/>
+      <c r="S72" s="64"/>
+    </row>
+    <row r="73" spans="1:19" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B73" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C62" s="97" t="s">
+      <c r="C73" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="D62" s="98"/>
-      <c r="E62" s="98"/>
-      <c r="F62" s="98"/>
-      <c r="G62" s="7" t="s">
+      <c r="D73" s="66"/>
+      <c r="E73" s="66"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H62" s="99" t="s">
+      <c r="H73" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="I62" s="100"/>
-      <c r="J62" s="101"/>
-      <c r="K62" s="6" t="s">
+      <c r="I73" s="68"/>
+      <c r="J73" s="69"/>
+      <c r="K73" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="102" t="s">
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
+      <c r="N73" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="O62" s="103"/>
-      <c r="Q62" s="104" t="s">
+      <c r="O73" s="71"/>
+      <c r="Q73" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="R62" s="104"/>
-      <c r="S62" s="104"/>
-    </row>
-    <row r="63" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
+      <c r="R73" s="72"/>
+      <c r="S73" s="72"/>
+    </row>
+    <row r="74" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B74" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C63" s="99" t="s">
+      <c r="C74" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="D63" s="100"/>
-      <c r="E63" s="100"/>
-      <c r="F63" s="100"/>
-      <c r="G63" s="7" t="s">
+      <c r="D74" s="68"/>
+      <c r="E74" s="68"/>
+      <c r="F74" s="68"/>
+      <c r="G74" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H63" s="99" t="s">
+      <c r="H74" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="I63" s="100"/>
-      <c r="J63" s="101"/>
-      <c r="K63" s="105" t="s">
+      <c r="I74" s="68"/>
+      <c r="J74" s="69"/>
+      <c r="K74" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="L63" s="107"/>
-      <c r="M63" s="107"/>
-      <c r="N63" s="13" t="s">
+      <c r="L74" s="75"/>
+      <c r="M74" s="75"/>
+      <c r="N74" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O63" s="30" t="s">
+      <c r="O74" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="Q63" s="14" t="s">
+      <c r="Q74" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="R63" s="92" t="s">
+      <c r="R74" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="S63" s="92"/>
-    </row>
-    <row r="64" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="32" t="s">
+      <c r="S74" s="60"/>
+    </row>
+    <row r="75" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B64" s="32" t="s">
+      <c r="B75" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C64" s="93" t="s">
+      <c r="C75" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="D64" s="94"/>
-      <c r="E64" s="94"/>
-      <c r="F64" s="94"/>
-      <c r="G64" s="32" t="s">
+      <c r="D75" s="62"/>
+      <c r="E75" s="62"/>
+      <c r="F75" s="62"/>
+      <c r="G75" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="H64" s="93" t="s">
+      <c r="H75" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="I64" s="94"/>
-      <c r="J64" s="95"/>
-      <c r="K64" s="106"/>
-      <c r="L64" s="108"/>
-      <c r="M64" s="108"/>
+      <c r="I75" s="62"/>
+      <c r="J75" s="63"/>
+      <c r="K75" s="74"/>
+      <c r="L75" s="76"/>
+      <c r="M75" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="45">
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="R74:S74"/>
+    <mergeCell ref="C75:F75"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="Q72:S72"/>
+    <mergeCell ref="C73:F73"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="Q73:S73"/>
+    <mergeCell ref="C74:F74"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="M74:M75"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="C71:F71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="C72:F72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="K5:M5"/>
     <mergeCell ref="P5:R5"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="A1:R1"/>
@@ -7193,41 +9080,6 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="P3:R3"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="C60:F60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="R63:S63"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="Q61:S61"/>
-    <mergeCell ref="C62:F62"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="Q62:S62"/>
-    <mergeCell ref="C63:F63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="N61:O61"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="51" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -7235,15 +9087,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3BF5B0D-9918-4D1D-90A8-EB16EFDF78E4}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAADE22C-80CB-4D66-BAA6-A213E68F3D11}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S74"/>
+  <dimension ref="A1:S85"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7269,228 +9121,229 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="117"/>
+      <c r="R2" s="117"/>
     </row>
     <row r="3" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="52"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="92"/>
       <c r="E3" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="54" t="s">
+      <c r="F3" s="90"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="52"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="92"/>
       <c r="O3" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
+      <c r="P3" s="120"/>
+      <c r="Q3" s="120"/>
+      <c r="R3" s="120"/>
     </row>
     <row r="4" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="117" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="118"/>
-      <c r="K4" s="127"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="58"/>
       <c r="L4" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="M4" s="127"/>
+      <c r="M4" s="58"/>
       <c r="N4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="51"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="52"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="135"/>
+      <c r="Q4" s="135"/>
+      <c r="R4" s="136"/>
     </row>
     <row r="5" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="45"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
       <c r="I5" s="46"/>
       <c r="J5" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="52"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="92"/>
       <c r="N5" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="O5" s="128"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-    </row>
-    <row r="6" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+      <c r="O5" s="43"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+    </row>
+    <row r="6" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="49"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="137"/>
+      <c r="R6" s="53"/>
+    </row>
+    <row r="7" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="110" t="s">
+      <c r="B7" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C7" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D7" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="71" t="s">
+      <c r="E7" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="73" t="s">
+      <c r="F7" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="70" t="s">
+      <c r="G7" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="75" t="s">
+      <c r="H7" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="111" t="s">
+      <c r="I7" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="112"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="77" t="s">
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="127"/>
+      <c r="M7" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="113"/>
-      <c r="O6" s="120" t="s">
+      <c r="N7" s="127"/>
+      <c r="O7" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="59" t="s">
+      <c r="P7" s="110"/>
+      <c r="Q7" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="R6" s="44" t="s">
+      <c r="R7" s="44" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="4" t="s">
+    <row r="8" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="94"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="4" t="s">
+      <c r="Q8" s="86"/>
+      <c r="R8" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="18"/>
     </row>
     <row r="9" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
@@ -7516,7 +9369,7 @@
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
       <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
@@ -7773,24 +9626,24 @@
       <c r="R22" s="18"/>
     </row>
     <row r="23" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="22"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="18"/>
     </row>
     <row r="24" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
@@ -7873,24 +9726,24 @@
       <c r="R27" s="22"/>
     </row>
     <row r="28" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="18"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="22"/>
     </row>
     <row r="29" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
@@ -7916,7 +9769,7 @@
       <c r="A30" s="16"/>
       <c r="B30" s="17"/>
       <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
+      <c r="D30" s="19"/>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
@@ -8173,24 +10026,24 @@
       <c r="R42" s="18"/>
     </row>
     <row r="43" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="22"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="18"/>
     </row>
     <row r="44" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20"/>
@@ -8273,24 +10126,24 @@
       <c r="R47" s="22"/>
     </row>
     <row r="48" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
-      <c r="L48" s="18"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="18"/>
-      <c r="O48" s="18"/>
-      <c r="P48" s="18"/>
-      <c r="Q48" s="16"/>
-      <c r="R48" s="18"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="22"/>
     </row>
     <row r="49" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16"/>
@@ -8316,7 +10169,7 @@
       <c r="A50" s="16"/>
       <c r="B50" s="17"/>
       <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
+      <c r="D50" s="19"/>
       <c r="E50" s="18"/>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
@@ -8573,24 +10426,24 @@
       <c r="R62" s="18"/>
     </row>
     <row r="63" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="20"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="22"/>
-      <c r="L63" s="22"/>
-      <c r="M63" s="22"/>
-      <c r="N63" s="22"/>
-      <c r="O63" s="22"/>
-      <c r="P63" s="22"/>
-      <c r="Q63" s="20"/>
-      <c r="R63" s="22"/>
+      <c r="A63" s="16"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="18"/>
+      <c r="N63" s="18"/>
+      <c r="O63" s="18"/>
+      <c r="P63" s="18"/>
+      <c r="Q63" s="16"/>
+      <c r="R63" s="18"/>
     </row>
     <row r="64" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="20"/>
@@ -8612,1675 +10465,6 @@
       <c r="Q64" s="20"/>
       <c r="R64" s="22"/>
     </row>
-    <row r="65" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="20"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="22"/>
-      <c r="L65" s="22"/>
-      <c r="M65" s="22"/>
-      <c r="N65" s="22"/>
-      <c r="O65" s="22"/>
-      <c r="P65" s="22"/>
-      <c r="Q65" s="20"/>
-      <c r="R65" s="22"/>
-    </row>
-    <row r="66" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="20"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
-      <c r="J66" s="22"/>
-      <c r="K66" s="22"/>
-      <c r="L66" s="22"/>
-      <c r="M66" s="22"/>
-      <c r="N66" s="22"/>
-      <c r="O66" s="22"/>
-      <c r="P66" s="22"/>
-      <c r="Q66" s="20"/>
-      <c r="R66" s="22"/>
-    </row>
-    <row r="67" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="20"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="22"/>
-      <c r="J67" s="22"/>
-      <c r="K67" s="22"/>
-      <c r="L67" s="22"/>
-      <c r="M67" s="22"/>
-      <c r="N67" s="22"/>
-      <c r="O67" s="22"/>
-      <c r="P67" s="22"/>
-      <c r="Q67" s="20"/>
-      <c r="R67" s="22"/>
-    </row>
-    <row r="69" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="C69" s="47"/>
-      <c r="D69" s="47"/>
-      <c r="R69" s="5"/>
-    </row>
-    <row r="70" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C70" s="86" t="s">
-        <v>41</v>
-      </c>
-      <c r="D70" s="87"/>
-      <c r="E70" s="87"/>
-      <c r="F70" s="88"/>
-      <c r="G70" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H70" s="86" t="s">
-        <v>41</v>
-      </c>
-      <c r="I70" s="87"/>
-      <c r="J70" s="88"/>
-      <c r="K70" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="L70" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="M70" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="N70" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q70" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C71" s="89" t="s">
-        <v>33</v>
-      </c>
-      <c r="D71" s="90"/>
-      <c r="E71" s="90"/>
-      <c r="F71" s="90"/>
-      <c r="G71" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="H71" s="89" t="s">
-        <v>47</v>
-      </c>
-      <c r="I71" s="90"/>
-      <c r="J71" s="91"/>
-      <c r="K71" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L71" s="10"/>
-      <c r="M71" s="12"/>
-      <c r="N71" s="109"/>
-      <c r="O71" s="96"/>
-      <c r="P71" s="11"/>
-      <c r="Q71" s="96"/>
-      <c r="R71" s="96"/>
-      <c r="S71" s="96"/>
-    </row>
-    <row r="72" spans="1:19" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C72" s="97" t="s">
-        <v>33</v>
-      </c>
-      <c r="D72" s="98"/>
-      <c r="E72" s="98"/>
-      <c r="F72" s="98"/>
-      <c r="G72" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H72" s="99" t="s">
-        <v>46</v>
-      </c>
-      <c r="I72" s="100"/>
-      <c r="J72" s="101"/>
-      <c r="K72" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="L72" s="10"/>
-      <c r="M72" s="10"/>
-      <c r="N72" s="102" t="s">
-        <v>63</v>
-      </c>
-      <c r="O72" s="103"/>
-      <c r="Q72" s="104" t="s">
-        <v>64</v>
-      </c>
-      <c r="R72" s="104"/>
-      <c r="S72" s="104"/>
-    </row>
-    <row r="73" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C73" s="99" t="s">
-        <v>48</v>
-      </c>
-      <c r="D73" s="100"/>
-      <c r="E73" s="100"/>
-      <c r="F73" s="100"/>
-      <c r="G73" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H73" s="99" t="s">
-        <v>49</v>
-      </c>
-      <c r="I73" s="100"/>
-      <c r="J73" s="101"/>
-      <c r="K73" s="105" t="s">
-        <v>54</v>
-      </c>
-      <c r="L73" s="107"/>
-      <c r="M73" s="107"/>
-      <c r="N73" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="O73" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q73" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="R73" s="92" t="s">
-        <v>61</v>
-      </c>
-      <c r="S73" s="92"/>
-    </row>
-    <row r="74" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B74" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C74" s="93" t="s">
-        <v>40</v>
-      </c>
-      <c r="D74" s="94"/>
-      <c r="E74" s="94"/>
-      <c r="F74" s="94"/>
-      <c r="G74" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="H74" s="93" t="s">
-        <v>50</v>
-      </c>
-      <c r="I74" s="94"/>
-      <c r="J74" s="95"/>
-      <c r="K74" s="106"/>
-      <c r="L74" s="108"/>
-      <c r="M74" s="108"/>
-    </row>
-  </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="C70:F70"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="C71:F71"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="R73:S73"/>
-    <mergeCell ref="C74:F74"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="Q71:S71"/>
-    <mergeCell ref="C72:F72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="Q72:S72"/>
-    <mergeCell ref="C73:F73"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="K73:K74"/>
-    <mergeCell ref="L73:L74"/>
-    <mergeCell ref="M73:M74"/>
-    <mergeCell ref="N71:O71"/>
-  </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="51" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAADE22C-80CB-4D66-BAA6-A213E68F3D11}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:S84"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="11.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.7109375" style="1" customWidth="1"/>
-    <col min="17" max="18" width="12.7109375" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-    </row>
-    <row r="3" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="52"/>
-      <c r="O3" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-    </row>
-    <row r="4" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="117" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="118"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="M4" s="127"/>
-      <c r="N4" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="O4" s="51"/>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="126"/>
-    </row>
-    <row r="5" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="45"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="K5" s="51"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="O5" s="43"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-    </row>
-    <row r="6" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="110" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="70" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="111" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6" s="112"/>
-      <c r="K6" s="112"/>
-      <c r="L6" s="113"/>
-      <c r="M6" s="111" t="s">
-        <v>3</v>
-      </c>
-      <c r="N6" s="113"/>
-      <c r="O6" s="120" t="s">
-        <v>26</v>
-      </c>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="R6" s="44" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="18"/>
-    </row>
-    <row r="9" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="18"/>
-    </row>
-    <row r="10" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="18"/>
-    </row>
-    <row r="11" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="18"/>
-    </row>
-    <row r="12" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="18"/>
-    </row>
-    <row r="13" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="18"/>
-    </row>
-    <row r="14" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="18"/>
-    </row>
-    <row r="15" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="18"/>
-    </row>
-    <row r="16" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="18"/>
-    </row>
-    <row r="17" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="18"/>
-    </row>
-    <row r="18" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="18"/>
-    </row>
-    <row r="19" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="18"/>
-    </row>
-    <row r="20" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="18"/>
-    </row>
-    <row r="21" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="18"/>
-    </row>
-    <row r="22" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="18"/>
-    </row>
-    <row r="23" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="22"/>
-    </row>
-    <row r="24" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="22"/>
-    </row>
-    <row r="25" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="22"/>
-    </row>
-    <row r="26" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="22"/>
-    </row>
-    <row r="27" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="22"/>
-    </row>
-    <row r="28" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="18"/>
-    </row>
-    <row r="29" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="18"/>
-    </row>
-    <row r="30" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="18"/>
-    </row>
-    <row r="31" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="18"/>
-    </row>
-    <row r="32" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="18"/>
-    </row>
-    <row r="33" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="18"/>
-    </row>
-    <row r="34" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="18"/>
-    </row>
-    <row r="35" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
-      <c r="O35" s="18"/>
-      <c r="P35" s="18"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="18"/>
-    </row>
-    <row r="36" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="18"/>
-    </row>
-    <row r="37" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="18"/>
-    </row>
-    <row r="38" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="18"/>
-    </row>
-    <row r="39" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="18"/>
-    </row>
-    <row r="40" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="16"/>
-      <c r="R40" s="18"/>
-    </row>
-    <row r="41" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="18"/>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="16"/>
-      <c r="R41" s="18"/>
-    </row>
-    <row r="42" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="18"/>
-      <c r="O42" s="18"/>
-      <c r="P42" s="18"/>
-      <c r="Q42" s="16"/>
-      <c r="R42" s="18"/>
-    </row>
-    <row r="43" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="22"/>
-    </row>
-    <row r="44" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="22"/>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="22"/>
-    </row>
-    <row r="45" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="20"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="22"/>
-      <c r="P45" s="22"/>
-      <c r="Q45" s="20"/>
-      <c r="R45" s="22"/>
-    </row>
-    <row r="46" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="22"/>
-      <c r="P46" s="22"/>
-      <c r="Q46" s="20"/>
-      <c r="R46" s="22"/>
-    </row>
-    <row r="47" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="20"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="22"/>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="20"/>
-      <c r="R47" s="22"/>
-    </row>
-    <row r="48" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
-      <c r="L48" s="18"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="18"/>
-      <c r="O48" s="18"/>
-      <c r="P48" s="18"/>
-      <c r="Q48" s="16"/>
-      <c r="R48" s="18"/>
-    </row>
-    <row r="49" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="16"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="18"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="18"/>
-      <c r="O49" s="18"/>
-      <c r="P49" s="18"/>
-      <c r="Q49" s="16"/>
-      <c r="R49" s="18"/>
-    </row>
-    <row r="50" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="16"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="18"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="18"/>
-      <c r="O50" s="18"/>
-      <c r="P50" s="18"/>
-      <c r="Q50" s="16"/>
-      <c r="R50" s="18"/>
-    </row>
-    <row r="51" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="16"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="18"/>
-      <c r="O51" s="18"/>
-      <c r="P51" s="18"/>
-      <c r="Q51" s="16"/>
-      <c r="R51" s="18"/>
-    </row>
-    <row r="52" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="16"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
-      <c r="L52" s="18"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="18"/>
-      <c r="O52" s="18"/>
-      <c r="P52" s="18"/>
-      <c r="Q52" s="16"/>
-      <c r="R52" s="18"/>
-    </row>
-    <row r="53" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="16"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
-      <c r="L53" s="18"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="18"/>
-      <c r="O53" s="18"/>
-      <c r="P53" s="18"/>
-      <c r="Q53" s="16"/>
-      <c r="R53" s="18"/>
-    </row>
-    <row r="54" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="18"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="18"/>
-      <c r="O54" s="18"/>
-      <c r="P54" s="18"/>
-      <c r="Q54" s="16"/>
-      <c r="R54" s="18"/>
-    </row>
-    <row r="55" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="16"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="18"/>
-      <c r="L55" s="18"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="18"/>
-      <c r="O55" s="18"/>
-      <c r="P55" s="18"/>
-      <c r="Q55" s="16"/>
-      <c r="R55" s="18"/>
-    </row>
-    <row r="56" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="16"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="18"/>
-      <c r="O56" s="18"/>
-      <c r="P56" s="18"/>
-      <c r="Q56" s="16"/>
-      <c r="R56" s="18"/>
-    </row>
-    <row r="57" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="16"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18"/>
-      <c r="L57" s="18"/>
-      <c r="M57" s="18"/>
-      <c r="N57" s="18"/>
-      <c r="O57" s="18"/>
-      <c r="P57" s="18"/>
-      <c r="Q57" s="16"/>
-      <c r="R57" s="18"/>
-    </row>
-    <row r="58" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="16"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
-      <c r="L58" s="18"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="18"/>
-      <c r="O58" s="18"/>
-      <c r="P58" s="18"/>
-      <c r="Q58" s="16"/>
-      <c r="R58" s="18"/>
-    </row>
-    <row r="59" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="16"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="18"/>
-      <c r="M59" s="18"/>
-      <c r="N59" s="18"/>
-      <c r="O59" s="18"/>
-      <c r="P59" s="18"/>
-      <c r="Q59" s="16"/>
-      <c r="R59" s="18"/>
-    </row>
-    <row r="60" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="16"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="18"/>
-      <c r="L60" s="18"/>
-      <c r="M60" s="18"/>
-      <c r="N60" s="18"/>
-      <c r="O60" s="18"/>
-      <c r="P60" s="18"/>
-      <c r="Q60" s="16"/>
-      <c r="R60" s="18"/>
-    </row>
-    <row r="61" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="16"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18"/>
-      <c r="K61" s="18"/>
-      <c r="L61" s="18"/>
-      <c r="M61" s="18"/>
-      <c r="N61" s="18"/>
-      <c r="O61" s="18"/>
-      <c r="P61" s="18"/>
-      <c r="Q61" s="16"/>
-      <c r="R61" s="18"/>
-    </row>
-    <row r="62" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="16"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18"/>
-      <c r="K62" s="18"/>
-      <c r="L62" s="18"/>
-      <c r="M62" s="18"/>
-      <c r="N62" s="18"/>
-      <c r="O62" s="18"/>
-      <c r="P62" s="18"/>
-      <c r="Q62" s="16"/>
-      <c r="R62" s="18"/>
-    </row>
-    <row r="63" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="20"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="22"/>
-      <c r="L63" s="22"/>
-      <c r="M63" s="22"/>
-      <c r="N63" s="22"/>
-      <c r="O63" s="22"/>
-      <c r="P63" s="22"/>
-      <c r="Q63" s="20"/>
-      <c r="R63" s="22"/>
-    </row>
-    <row r="64" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="20"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="22"/>
-      <c r="L64" s="22"/>
-      <c r="M64" s="22"/>
-      <c r="N64" s="22"/>
-      <c r="O64" s="22"/>
-      <c r="P64" s="22"/>
-      <c r="Q64" s="20"/>
-      <c r="R64" s="22"/>
-    </row>
     <row r="65" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="20"/>
       <c r="B65" s="21"/>
@@ -10541,187 +10725,243 @@
       <c r="Q77" s="20"/>
       <c r="R77" s="22"/>
     </row>
-    <row r="79" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="47" t="s">
+    <row r="78" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="20"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="22"/>
+      <c r="J78" s="22"/>
+      <c r="K78" s="22"/>
+      <c r="L78" s="22"/>
+      <c r="M78" s="22"/>
+      <c r="N78" s="22"/>
+      <c r="O78" s="22"/>
+      <c r="P78" s="22"/>
+      <c r="Q78" s="20"/>
+      <c r="R78" s="22"/>
+    </row>
+    <row r="80" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="C79" s="47"/>
-      <c r="D79" s="47"/>
-      <c r="R79" s="5"/>
-    </row>
-    <row r="80" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
+      <c r="C80" s="114"/>
+      <c r="D80" s="114"/>
+      <c r="R80" s="5"/>
+    </row>
+    <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B81" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C80" s="86" t="s">
+      <c r="C81" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="D80" s="87"/>
-      <c r="E80" s="87"/>
-      <c r="F80" s="88"/>
-      <c r="G80" s="6" t="s">
+      <c r="D81" s="80"/>
+      <c r="E81" s="80"/>
+      <c r="F81" s="81"/>
+      <c r="G81" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H80" s="86" t="s">
+      <c r="H81" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="I80" s="87"/>
-      <c r="J80" s="88"/>
-      <c r="K80" s="6" t="s">
+      <c r="I81" s="80"/>
+      <c r="J81" s="81"/>
+      <c r="K81" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L80" s="6" t="s">
+      <c r="L81" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="M80" s="6" t="s">
+      <c r="M81" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="N80" s="1" t="s">
+      <c r="N81" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q80" s="5" t="s">
+      <c r="Q81" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="31" t="s">
+    <row r="82" spans="1:19" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B82" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C81" s="89" t="s">
+      <c r="C82" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="D81" s="90"/>
-      <c r="E81" s="90"/>
-      <c r="F81" s="90"/>
-      <c r="G81" s="31" t="s">
+      <c r="D82" s="83"/>
+      <c r="E82" s="83"/>
+      <c r="F82" s="83"/>
+      <c r="G82" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="H81" s="89" t="s">
+      <c r="H82" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="I81" s="90"/>
-      <c r="J81" s="91"/>
-      <c r="K81" s="6" t="s">
+      <c r="I82" s="83"/>
+      <c r="J82" s="84"/>
+      <c r="K82" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L81" s="10"/>
-      <c r="M81" s="12"/>
-      <c r="N81" s="109"/>
-      <c r="O81" s="96"/>
-      <c r="P81" s="11"/>
-      <c r="Q81" s="96"/>
-      <c r="R81" s="96"/>
-      <c r="S81" s="96"/>
-    </row>
-    <row r="82" spans="1:19" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="7" t="s">
+      <c r="L82" s="10"/>
+      <c r="M82" s="12"/>
+      <c r="N82" s="77"/>
+      <c r="O82" s="64"/>
+      <c r="P82" s="11"/>
+      <c r="Q82" s="64"/>
+      <c r="R82" s="64"/>
+      <c r="S82" s="64"/>
+    </row>
+    <row r="83" spans="1:19" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B83" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C82" s="97" t="s">
+      <c r="C83" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="D82" s="98"/>
-      <c r="E82" s="98"/>
-      <c r="F82" s="98"/>
-      <c r="G82" s="7" t="s">
+      <c r="D83" s="66"/>
+      <c r="E83" s="66"/>
+      <c r="F83" s="66"/>
+      <c r="G83" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H82" s="99" t="s">
+      <c r="H83" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="I82" s="100"/>
-      <c r="J82" s="101"/>
-      <c r="K82" s="6" t="s">
+      <c r="I83" s="68"/>
+      <c r="J83" s="69"/>
+      <c r="K83" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="L82" s="10"/>
-      <c r="M82" s="10"/>
-      <c r="N82" s="102" t="s">
+      <c r="L83" s="10"/>
+      <c r="M83" s="10"/>
+      <c r="N83" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="O82" s="103"/>
-      <c r="Q82" s="104" t="s">
+      <c r="O83" s="71"/>
+      <c r="Q83" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="R82" s="104"/>
-      <c r="S82" s="104"/>
-    </row>
-    <row r="83" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="R83" s="72"/>
+      <c r="S83" s="72"/>
+    </row>
+    <row r="84" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B84" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C83" s="99" t="s">
+      <c r="C84" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="D83" s="100"/>
-      <c r="E83" s="100"/>
-      <c r="F83" s="100"/>
-      <c r="G83" s="7" t="s">
+      <c r="D84" s="68"/>
+      <c r="E84" s="68"/>
+      <c r="F84" s="68"/>
+      <c r="G84" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H83" s="99" t="s">
+      <c r="H84" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="I83" s="100"/>
-      <c r="J83" s="101"/>
-      <c r="K83" s="105" t="s">
+      <c r="I84" s="68"/>
+      <c r="J84" s="69"/>
+      <c r="K84" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="L83" s="107"/>
-      <c r="M83" s="107"/>
-      <c r="N83" s="13" t="s">
+      <c r="L84" s="75"/>
+      <c r="M84" s="75"/>
+      <c r="N84" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O83" s="30" t="s">
+      <c r="O84" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="Q83" s="14" t="s">
+      <c r="Q84" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="R83" s="92" t="s">
+      <c r="R84" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="S83" s="92"/>
-    </row>
-    <row r="84" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="32" t="s">
+      <c r="S84" s="60"/>
+    </row>
+    <row r="85" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="32" t="s">
+      <c r="B85" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C84" s="93" t="s">
+      <c r="C85" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="D84" s="94"/>
-      <c r="E84" s="94"/>
-      <c r="F84" s="94"/>
-      <c r="G84" s="32" t="s">
+      <c r="D85" s="62"/>
+      <c r="E85" s="62"/>
+      <c r="F85" s="62"/>
+      <c r="G85" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="H84" s="93" t="s">
+      <c r="H85" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="I84" s="94"/>
-      <c r="J84" s="95"/>
-      <c r="K84" s="106"/>
-      <c r="L84" s="108"/>
-      <c r="M84" s="108"/>
+      <c r="I85" s="62"/>
+      <c r="J85" s="63"/>
+      <c r="K85" s="74"/>
+      <c r="L85" s="76"/>
+      <c r="M85" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="45">
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="R84:S84"/>
+    <mergeCell ref="C85:F85"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="Q82:S82"/>
+    <mergeCell ref="C83:F83"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="Q83:S83"/>
+    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="K84:K85"/>
+    <mergeCell ref="L84:L85"/>
+    <mergeCell ref="M84:M85"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="C81:F81"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="C82:F82"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="K5:M5"/>
     <mergeCell ref="P5:R5"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="A1:R1"/>
@@ -10731,41 +10971,6 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="P3:R3"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="C80:F80"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="C81:F81"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="C84:F84"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="Q81:S81"/>
-    <mergeCell ref="C82:F82"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="Q82:S82"/>
-    <mergeCell ref="C83:F83"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="K83:K84"/>
-    <mergeCell ref="L83:L84"/>
-    <mergeCell ref="M83:M84"/>
-    <mergeCell ref="N81:O81"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="51" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
